--- a/配置文件/2016幼儿园科技比赛.xlsx
+++ b/配置文件/2016幼儿园科技比赛.xlsx
@@ -586,18 +586,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#0&quot;分&quot;\ 0&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
-    <numFmt numFmtId="179" formatCode="#0&quot;分&quot;00&quot;秒&quot;00"/>
-    <numFmt numFmtId="180" formatCode="#0&quot;得分&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
-    <numFmt numFmtId="181" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="179" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="#0&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="#0&quot;得分&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -680,25 +680,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -706,8 +687,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -730,6 +727,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -773,6 +792,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -781,38 +808,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -881,181 +876,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,6 +1073,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1089,6 +1093,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,24 +1145,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1183,10 +1178,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1195,138 +1190,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1402,15 +1397,15 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1467,12 +1462,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1881,13 +1870,13 @@
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1941,7 +1930,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1986,7 +1975,7 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="43" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="44" t="s">
@@ -1997,7 +1986,7 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="43" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="44" t="s">

--- a/配置文件/2016幼儿园科技比赛.xlsx
+++ b/配置文件/2016幼儿园科技比赛.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21510" windowHeight="10530" activeTab="1"/>
+    <workbookView windowWidth="21510" windowHeight="10530" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="全局" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="成绩册" sheetId="5" r:id="rId5"/>
     <sheet name="成绩册封面" sheetId="6" r:id="rId6"/>
     <sheet name="备注 " sheetId="7" r:id="rId7"/>
+    <sheet name="常见错误" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -278,7 +279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
   <si>
     <t>名称</t>
   </si>
@@ -376,7 +377,10 @@
     <t>高分低分用时短</t>
   </si>
   <si>
-    <t>一等奖 0.2 二等奖 0.3 三等奖 0.5</t>
+    <t>一等奖 0.1 二等奖 0.2 三等奖 0.5</t>
+  </si>
+  <si>
+    <t>两轮高分低分</t>
   </si>
   <si>
     <t>标题行高</t>
@@ -553,20 +557,10 @@
     <t>[奖项]</t>
   </si>
   <si>
-    <t>第一轮
-得分 时间</t>
-  </si>
-  <si>
     <t>[成绩2]</t>
   </si>
   <si>
-    <t>[成绩排序]</t>
-  </si>
-  <si>
-    <t>成绩公示</t>
-  </si>
-  <si>
-    <t>2016.6 昆山市青少年宫</t>
+    <t>成绩册</t>
   </si>
   <si>
     <t>先设置好 分组 再设置 编号</t>
@@ -579,6 +573,33 @@
   </si>
   <si>
     <t>自定义成绩册方法：表名如“成绩册A1”，放在此文件中</t>
+  </si>
+  <si>
+    <t>表名/动作</t>
+  </si>
+  <si>
+    <t>错误现象</t>
+  </si>
+  <si>
+    <t>错误原因</t>
+  </si>
+  <si>
+    <t>裁判用表</t>
+  </si>
+  <si>
+    <t>无选手数据，显示为模板表</t>
+  </si>
+  <si>
+    <t>首条数据行号填写是否正确</t>
+  </si>
+  <si>
+    <t>成绩计算</t>
+  </si>
+  <si>
+    <t>莫名错误</t>
+  </si>
+  <si>
+    <t>“成绩”表里的“用时长度”是否填写</t>
   </si>
 </sst>
 </file>
@@ -586,19 +607,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="#0&quot;分&quot;\ 0&quot;分&quot;00&quot;秒&quot;00"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
-    <numFmt numFmtId="179" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="#0&quot;分&quot;00&quot;秒&quot;00"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="#0&quot;得分&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="178" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;"/>
+    <numFmt numFmtId="179" formatCode="#0&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="180" formatCode="#0&quot;得分&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="181" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
   </numFmts>
   <fonts count="34">
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -627,12 +654,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -681,6 +702,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -721,28 +764,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -831,7 +852,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -840,6 +861,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -864,7 +891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,6 +903,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -895,12 +928,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,10 +1205,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1190,19 +1217,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1211,52 +1238,52 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1265,103 +1292,106 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1376,34 +1406,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1412,13 +1442,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1427,16 +1457,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1457,13 +1487,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1859,7 +1889,7 @@
   <dimension ref="A2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1870,13 +1900,13 @@
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1929,70 +1959,70 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="38.875" style="43" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="10.6" style="28" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="43" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="43" customWidth="1"/>
+    <col min="1" max="1" width="38.875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="10.6" style="29" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="2:3">
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:5">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2012,7 +2042,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -2022,90 +2052,92 @@
     <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="9.125" customWidth="1"/>
-    <col min="6" max="6" width="29" style="28" customWidth="1"/>
+    <col min="6" max="6" width="29" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="6:6">
       <c r="F1"/>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:6">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="39" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:6">
-      <c r="A3" s="39" t="str">
+      <c r="A3" s="40" t="str">
         <f>项目!A3</f>
         <v>智力七巧板现场拼搭个人赛</v>
       </c>
-      <c r="B3" s="39" t="str">
+      <c r="B3" s="40" t="str">
         <f>项目!B3</f>
         <v>A1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:6">
-      <c r="A4" s="39" t="str">
+      <c r="A4" s="40" t="str">
         <f>项目!A4</f>
         <v>1/24电动遥控大脚车竞速赛</v>
       </c>
-      <c r="B4" s="39" t="str">
+      <c r="B4" s="40" t="str">
         <f>项目!B4</f>
         <v>B1</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="41">
+        <v>4</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:6">
-      <c r="A5" s="39" t="str">
+      <c r="A5" s="40" t="str">
         <f>项目!A5</f>
         <v>双钻2·4G教育赛车遥控竞速赛</v>
       </c>
-      <c r="B5" s="39" t="str">
+      <c r="B5" s="40" t="str">
         <f>项目!B5</f>
         <v>B2</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="42" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>30</v>
+      <c r="F5" s="29" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2130,11 +2162,11 @@
   <dimension ref="A1:AG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2150,453 +2182,453 @@
     <col min="14" max="14" width="9.125" customWidth="1"/>
     <col min="15" max="15" width="9.625" customWidth="1"/>
     <col min="16" max="16" width="6.75" customWidth="1"/>
-    <col min="17" max="17" width="4.125" style="29" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="30" customWidth="1"/>
     <col min="18" max="25" width="4.125" customWidth="1"/>
     <col min="26" max="30" width="8.875" customWidth="1"/>
     <col min="31" max="32" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="17:17">
-      <c r="Q1" s="33"/>
+      <c r="Q1" s="34"/>
     </row>
     <row r="2" ht="24" spans="1:33">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="D2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="F2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="G2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="M2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="P2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="R2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="S2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="T2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="U2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="V2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="W2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="X2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Y2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="Z2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AA2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AB2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AC2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AD2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AE2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AF2" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" s="5" customFormat="1" ht="28" customHeight="1" spans="1:32">
-      <c r="A3" s="5" t="str">
+      <c r="AG2" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="28" customHeight="1" spans="1:32">
+      <c r="A3" s="6" t="str">
         <f>项目!A3</f>
         <v>智力七巧板现场拼搭个人赛</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="6" t="str">
         <f>项目!B3</f>
         <v>A1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>30</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>25</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="33">
         <v>2</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="H3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="M3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="14" t="s">
+      <c r="N3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="O3" s="16"/>
+      <c r="P3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="17">
         <f>SUM(R3:Y3)</f>
         <v>84</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="16">
         <v>30</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="16">
         <v>6</v>
       </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15">
+      <c r="T3" s="16"/>
+      <c r="U3" s="16">
         <v>8</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="16">
         <v>8</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="16">
         <v>20</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15">
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16">
         <v>12</v>
       </c>
-      <c r="Z3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA3" s="20" t="s">
+      <c r="Z3" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20" t="s">
+      <c r="AA3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AD3" s="20" t="s">
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-    </row>
-    <row r="4" s="5" customFormat="1" ht="28" customHeight="1" spans="1:32">
-      <c r="A4" s="5" t="str">
+      <c r="AD3" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="28" customHeight="1" spans="1:32">
+      <c r="A4" s="6" t="str">
         <f>项目!A4</f>
         <v>1/24电动遥控大脚车竞速赛</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="6" t="str">
         <f>项目!B4</f>
         <v>B1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>30</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>25</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="33">
         <v>2</v>
       </c>
-      <c r="F4" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="15" t="s">
+      <c r="M4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="16">
+      <c r="O4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="17">
         <f>SUM(R4:Y4)</f>
         <v>98</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="16">
         <v>30</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="16">
         <v>6</v>
       </c>
-      <c r="T4" s="15">
+      <c r="T4" s="16">
         <v>6</v>
       </c>
-      <c r="U4" s="15">
+      <c r="U4" s="16">
         <v>8</v>
       </c>
-      <c r="V4" s="15">
+      <c r="V4" s="16">
         <v>8</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W4" s="16">
         <v>15</v>
       </c>
-      <c r="X4" s="15">
+      <c r="X4" s="16">
         <v>15</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="Y4" s="16">
         <v>10</v>
       </c>
-      <c r="Z4" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA4" s="20" t="s">
+      <c r="Z4" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC4" s="20" t="s">
+      <c r="AA4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AD4" s="20" t="s">
+      <c r="AB4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="AE4" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF4" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="28" customHeight="1" spans="1:32">
-      <c r="A5" s="5" t="str">
+      <c r="AD4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF4" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="28" customHeight="1" spans="1:32">
+      <c r="A5" s="6" t="str">
         <f>项目!A5</f>
         <v>双钻2·4G教育赛车遥控竞速赛</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B5" s="6" t="str">
         <f>项目!B5</f>
         <v>B2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>30</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>25</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="33">
         <v>2</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="32" t="s">
+      <c r="F5" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="H5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" s="15" t="s">
+      <c r="M5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="P5" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="16">
+      <c r="O5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="17">
         <f>SUM(R5:Y5)</f>
         <v>98</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="16">
         <v>30</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="16">
         <v>6</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="16">
         <v>6</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="16">
         <v>8</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="16">
         <v>8</v>
       </c>
-      <c r="W5" s="15">
+      <c r="W5" s="16">
         <v>15</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="16">
         <v>15</v>
       </c>
-      <c r="Y5" s="15">
+      <c r="Y5" s="16">
         <v>10</v>
       </c>
-      <c r="Z5" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA5" s="20" t="s">
+      <c r="Z5" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AB5" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC5" s="20" t="s">
+      <c r="AA5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AD5" s="20" t="s">
+      <c r="AB5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="AE5" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF5" s="35" t="s">
-        <v>79</v>
+      <c r="AD5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE5" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF5" s="36" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:32">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" ht="28" customHeight="1"/>
     <row r="12" ht="28" customHeight="1"/>
@@ -2615,12 +2647,12 @@
   </sheetPr>
   <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AF4" sqref="AF4:AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2640,516 +2672,520 @@
   <sheetData>
     <row r="1" ht="23" customHeight="1"/>
     <row r="2" ht="24" spans="1:33">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="12" t="s">
+      <c r="L2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="M2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="O2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="P2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="Q2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="R2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="S2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="T2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="U2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="X2" s="8" t="s">
+      <c r="V2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="W2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Y2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="Z2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AA2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AB2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AC2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AD2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AE2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" s="5" customFormat="1" ht="28" customHeight="1" spans="1:33">
-      <c r="A3" s="9" t="str">
+      <c r="AG2" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="28" customHeight="1" spans="1:33">
+      <c r="A3" s="10" t="str">
         <f>项目!A3</f>
         <v>智力七巧板现场拼搭个人赛</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="6" t="str">
         <f>项目!B3</f>
         <v>A1</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>30</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>20</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="H3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="I3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="16">
+      <c r="L3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="17">
         <f>SUM(O3:W3)</f>
         <v>80</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="18">
         <v>25</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="18">
         <v>6</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="18">
         <v>8</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="18">
         <v>15</v>
       </c>
-      <c r="S3" s="17">
+      <c r="S3" s="18">
         <v>8</v>
       </c>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18">
         <v>5</v>
       </c>
-      <c r="V3" s="17">
+      <c r="V3" s="18">
         <v>8</v>
       </c>
-      <c r="W3" s="17">
+      <c r="W3" s="18">
         <v>5</v>
       </c>
-      <c r="X3" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3" s="20" t="s">
+      <c r="X3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="Z3" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA3" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB3" s="21" t="s">
+      <c r="AA3" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="23" t="s">
+      <c r="AB3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="AE3" s="23" t="s">
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="28"/>
-    </row>
-    <row r="4" s="5" customFormat="1" ht="28" customHeight="1" spans="1:33">
-      <c r="A4" s="9" t="str">
+      <c r="AE3" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="29"/>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="28" customHeight="1" spans="1:33">
+      <c r="A4" s="10" t="str">
         <f>项目!A4</f>
         <v>1/24电动遥控大脚车竞速赛</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="6" t="str">
         <f>项目!B4</f>
         <v>B1</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>30</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>20</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15" t="s">
+      <c r="H4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="I4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="16">
+      <c r="L4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="17">
         <f>SUM(O4:W4)</f>
+        <v>96</v>
+      </c>
+      <c r="O4" s="18">
+        <v>20</v>
+      </c>
+      <c r="P4" s="18">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>8</v>
+      </c>
+      <c r="R4" s="18">
+        <v>12</v>
+      </c>
+      <c r="S4" s="18">
+        <v>16</v>
+      </c>
+      <c r="T4" s="18">
+        <v>16</v>
+      </c>
+      <c r="U4" s="18">
+        <v>5</v>
+      </c>
+      <c r="V4" s="18">
+        <v>8</v>
+      </c>
+      <c r="W4" s="18">
+        <v>5</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB4" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC4" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD4" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE4" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="17">
-        <v>20</v>
-      </c>
-      <c r="P4" s="17">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>30</v>
-      </c>
-      <c r="R4" s="17">
-        <v>12</v>
-      </c>
-      <c r="S4" s="17">
-        <v>5</v>
-      </c>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17">
-        <v>5</v>
-      </c>
-      <c r="V4" s="17">
-        <v>8</v>
-      </c>
-      <c r="W4" s="17">
-        <v>5</v>
-      </c>
-      <c r="X4" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y4" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z4" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA4" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB4" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE4" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="28"/>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="28" customHeight="1" spans="1:33">
-      <c r="A5" s="9" t="str">
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="29"/>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="28" customHeight="1" spans="1:33">
+      <c r="A5" s="10" t="str">
         <f>项目!A5</f>
         <v>双钻2·4G教育赛车遥控竞速赛</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B5" s="6" t="str">
         <f>项目!B5</f>
         <v>B2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>30</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>20</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="17">
+        <f>SUM(O5:W5)</f>
+        <v>89</v>
+      </c>
+      <c r="O5" s="18">
+        <v>25</v>
+      </c>
+      <c r="P5" s="18">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>8</v>
+      </c>
+      <c r="R5" s="18">
+        <v>12</v>
+      </c>
+      <c r="S5" s="18">
+        <v>10</v>
+      </c>
+      <c r="T5" s="18">
+        <v>10</v>
+      </c>
+      <c r="U5" s="18">
+        <v>5</v>
+      </c>
+      <c r="V5" s="18">
+        <v>8</v>
+      </c>
+      <c r="W5" s="18">
+        <v>5</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB5" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD5" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE5" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="16">
-        <f>SUM(O5:W5)</f>
-        <v>96</v>
-      </c>
-      <c r="O5" s="17">
-        <v>20</v>
-      </c>
-      <c r="P5" s="17">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>8</v>
-      </c>
-      <c r="R5" s="17">
-        <v>12</v>
-      </c>
-      <c r="S5" s="17">
-        <v>16</v>
-      </c>
-      <c r="T5" s="17">
-        <v>16</v>
-      </c>
-      <c r="U5" s="17">
-        <v>5</v>
-      </c>
-      <c r="V5" s="17">
-        <v>8</v>
-      </c>
-      <c r="W5" s="17">
-        <v>5</v>
-      </c>
-      <c r="X5" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y5" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z5" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA5" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB5" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC5" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD5" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE5" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG5" s="28"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="29"/>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:33">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="28"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="29"/>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:33">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="28"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="29"/>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:33">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="28"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="29"/>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" ht="28" customHeight="1"/>
     <row r="14" ht="28" customHeight="1"/>
@@ -3169,7 +3205,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -3177,20 +3213,22 @@
     <col min="1" max="1" width="93.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="230" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
+    <row r="1" ht="211" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="str">
+        <f>全局!B3</f>
+        <v>昆山市青少年科技竞赛活动（幼儿园组）总决赛</v>
       </c>
     </row>
     <row r="2" ht="407" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" ht="33" spans="1:1">
-      <c r="A3" s="4" t="s">
-        <v>95</v>
+      <c r="A3" s="5" t="str">
+        <f>全局!B4</f>
+        <v>2016年6月 昆山市青少年宫</v>
       </c>
     </row>
   </sheetData>
@@ -3204,34 +3242,34 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
-    <tabColor theme="1"/>
+    <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3239,4 +3277,82 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="38.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:3">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:3">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1"/>
+    <row r="5" ht="20" customHeight="1"/>
+    <row r="6" ht="20" customHeight="1"/>
+    <row r="7" ht="20" customHeight="1"/>
+    <row r="8" ht="20" customHeight="1"/>
+    <row r="9" ht="20" customHeight="1"/>
+    <row r="10" ht="20" customHeight="1"/>
+    <row r="11" ht="20" customHeight="1"/>
+    <row r="12" ht="20" customHeight="1"/>
+    <row r="13" ht="20" customHeight="1"/>
+    <row r="14" ht="20" customHeight="1"/>
+    <row r="15" ht="20" customHeight="1"/>
+    <row r="16" ht="20" customHeight="1"/>
+    <row r="17" ht="20" customHeight="1"/>
+    <row r="18" ht="20" customHeight="1"/>
+    <row r="19" ht="20" customHeight="1"/>
+    <row r="20" ht="20" customHeight="1"/>
+    <row r="21" ht="20" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/配置文件/2016幼儿园科技比赛.xlsx
+++ b/配置文件/2016幼儿园科技比赛.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21510" windowHeight="10530" activeTab="4"/>
+    <workbookView windowWidth="20400" windowHeight="8550" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="全局" sheetId="1" r:id="rId1"/>
@@ -607,13 +607,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
-    <numFmt numFmtId="178" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="179" formatCode="#0&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="180" formatCode="#0&quot;得分&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="181" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
@@ -702,7 +702,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -724,61 +763,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -813,17 +798,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -838,8 +815,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -903,19 +903,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,109 +1047,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,43 +1065,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,39 +1100,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1144,6 +1111,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,6 +1163,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1197,6 +1188,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1205,10 +1205,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1217,34 +1217,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1253,97 +1250,100 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -1406,7 +1406,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1418,13 +1418,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2161,12 +2161,12 @@
   </sheetPr>
   <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="Y4" sqref="Y4:Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="Q4" s="17">
         <f>SUM(R4:Y4)</f>
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R4" s="16">
         <v>30</v>
@@ -2455,7 +2455,7 @@
         <v>15</v>
       </c>
       <c r="Y4" s="16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z4" s="20" t="s">
         <v>73</v>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="Q5" s="17">
         <f>SUM(R5:Y5)</f>
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R5" s="16">
         <v>30</v>
@@ -2556,7 +2556,7 @@
         <v>15</v>
       </c>
       <c r="Y5" s="16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z5" s="20" t="s">
         <v>73</v>
@@ -2647,7 +2647,7 @@
   </sheetPr>
   <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="33" spans="1:1">
+    <row r="3" ht="33.75" spans="1:1">
       <c r="A3" s="5" t="str">
         <f>全局!B4</f>
         <v>2016年6月 昆山市青少年宫</v>
